--- a/data/case1/2/Q2_3.xlsx
+++ b/data/case1/2/Q2_3.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.223721971661071</v>
+        <v>0.09611372762975634</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.005999999939739098</v>
+        <v>-0.0059999999149979999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999468580683</v>
+        <v>-0.0039999999354982663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999031912239</v>
+        <v>-0.0079999998792477101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999457954729</v>
+        <v>-0.0029999999491954199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999431892235</v>
+        <v>0.082224276418463305</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998673121482</v>
+        <v>-0.0099999998562489978</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998702502424</v>
+        <v>-0.0099999998572721793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999532802626</v>
+        <v>-0.0019999999740418772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999601232332</v>
+        <v>-0.0019999999797164492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.01112907906888605</v>
+        <v>-0.0029999999661507459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999463298792</v>
+        <v>-0.003499999960530964</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999548617211</v>
+        <v>0.027208633451657249</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.044789511974908436</v>
+        <v>-0.0079999999091597829</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998130062551</v>
+        <v>-0.0010000000075889304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999708728566</v>
+        <v>0.0091974396826368654</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999697759563</v>
+        <v>-0.0019999999939441793</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999503042005</v>
+        <v>-0.0039999999657345242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.05644386649006794</v>
+        <v>-0.006488739495079443</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999547504217</v>
+        <v>-0.0039999999377648976</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999542894571</v>
+        <v>-0.0039999999370881056</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999540096809</v>
+        <v>-0.0039999999365107897</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999340553103</v>
+        <v>-0.0049999999166931985</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999784981348</v>
+        <v>-0.019999999699384041</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.01999999978214273</v>
+        <v>-0.019999999695041737</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999357540048</v>
+        <v>-0.0024999999563313224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.002499999931165231</v>
+        <v>-0.0024999999523855898</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999165571936</v>
+        <v>-0.0019999999380804212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998559016063</v>
+        <v>-0.0069999998564753696</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999340940136</v>
+        <v>-0.059999999109968893</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998445560152</v>
+        <v>0.009282035360714147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998151290015</v>
+        <v>-0.0099999998056947703</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.003999999872499771</v>
+        <v>-0.0039999998892401578</v>
       </c>
     </row>
   </sheetData>
